--- a/data/assets/Насруллоева Адиба Сухробовна.xlsx
+++ b/data/assets/Насруллоева Адиба Сухробовна.xlsx
@@ -2281,10 +2281,22 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B65" s="13" t="n"/>
-      <c r="C65" s="13" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="13" t="n"/>
+      <c r="B65" s="13" t="inlineStr">
+        <is>
+          <t>Физ-ра</t>
+        </is>
+      </c>
+      <c r="C65" s="13" t="inlineStr">
+        <is>
+          <t>Ф-10-2, Ф-10-3</t>
+        </is>
+      </c>
+      <c r="D65" s="13" t="inlineStr"/>
+      <c r="E65" s="13" t="inlineStr">
+        <is>
+          <t>спортзал</t>
+        </is>
+      </c>
       <c r="F65" s="4" t="n"/>
       <c r="G65" s="29" t="n"/>
       <c r="H65" s="29" t="n"/>
